--- a/BiTech.Library/BiTech.Library/Tempalates/OutExportSlSach.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempalates/OutExportSlSach.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Bảng Thống Kê Số Lượng Sách</t>
   </si>
@@ -35,145 +35,28 @@
     <t>Số Lượng Sách Còn Không Cho Mượn</t>
   </si>
   <si>
-    <t>13118</t>
-  </si>
-  <si>
-    <t>Những tấm gương bình dị mà cao quý trong học tập và làm theo tấm gương đạo đức Hồ Chí Minh năm 2016</t>
-  </si>
-  <si>
-    <t>13119</t>
-  </si>
-  <si>
-    <t>Tài nguyên khí thiên nhiên Việt Nam</t>
-  </si>
-  <si>
-    <t>13120</t>
-  </si>
-  <si>
-    <t>Kỹ thuật gia cố và nâng cấp đê sông</t>
-  </si>
-  <si>
-    <t>13121</t>
-  </si>
-  <si>
-    <t>Chính sách tài chính thúc đẩy hoạt động tự chủ của các đơn vị sự nghiệp</t>
-  </si>
-  <si>
-    <t>13122</t>
-  </si>
-  <si>
-    <t>Định hướng quy hoạch không gian biển Phú Quốc - Côn Đảo phục vụ phát triển bền vững</t>
-  </si>
-  <si>
-    <t>13123</t>
-  </si>
-  <si>
-    <t>Từ ý tưởng đổi mới sáng tạo đến sản phẩm hàng hóa</t>
-  </si>
-  <si>
-    <t>13124</t>
-  </si>
-  <si>
-    <t>Đào tạo, bồi dưỡng cán bộ tuyên giáo  trong giai đoạn hiện nay</t>
-  </si>
-  <si>
-    <t>13125</t>
-  </si>
-  <si>
-    <t>Toán học và khoa học tự nhiên (Dành cho học sinh Trung học phổ thông)</t>
-  </si>
-  <si>
-    <t>13126</t>
-  </si>
-  <si>
-    <t>Tổng tiến công và nổi dậy Xuân Mậu Thân 1968 - Bước ngoặt quyết định</t>
-  </si>
-  <si>
-    <t>13127</t>
-  </si>
-  <si>
-    <t>Kinh tế xanh cho phát triển bền vững trong bối cảnh biến đổi khí hậu</t>
-  </si>
-  <si>
-    <t>13128</t>
-  </si>
-  <si>
-    <t>Tài chính Việt Nam 2017 - Đối diện thách thức, đổi mới tư duy</t>
-  </si>
-  <si>
-    <t>13129</t>
-  </si>
-  <si>
-    <t>Nhu cầu hoàn thiện hệ thống pháp luật đến năm 2030</t>
-  </si>
-  <si>
-    <t>13130</t>
-  </si>
-  <si>
-    <t>100 điều kì diệu của cuộc sống</t>
-  </si>
-  <si>
-    <t>13131</t>
-  </si>
-  <si>
-    <t>13132</t>
-  </si>
-  <si>
-    <t>Đổi mới sự lãnh đạo của Đảng trong điều kiện xây dựng nhà nước pháp quyền xã hội chủ nghĩa ở Việt Nam</t>
-  </si>
-  <si>
-    <t>13133</t>
-  </si>
-  <si>
-    <t>Chính sách, cơ chế tài chính thực hiện chương trình mục tiêu quốc gia và chương trình mục tiêu giai đoạn 2016 - 2020</t>
-  </si>
-  <si>
-    <t>13134</t>
-  </si>
-  <si>
-    <t>Nguyễn An Ninh - Nhà tư tưởng tiêu biểu đầu thế kỷ XX ở Nam Bộ</t>
-  </si>
-  <si>
-    <t>13135</t>
-  </si>
-  <si>
-    <t>Bàn về Trung Quốc  - Tiết lộ của người trong cuộc về siêu cường kinh tế mới</t>
-  </si>
-  <si>
-    <t>13136</t>
-  </si>
-  <si>
-    <t>Hội nghị Pari - Cánh cửa đến hòa bình</t>
-  </si>
-  <si>
-    <t>13137</t>
-  </si>
-  <si>
-    <t>Cách mạng công nghiệp 4.0</t>
-  </si>
-  <si>
-    <t>13138</t>
-  </si>
-  <si>
-    <t>Cải cách doanh nghiệp nhà nước ở Việt Nam sau 30 năm đổi mới: Thực trạng và giải pháp</t>
-  </si>
-  <si>
-    <t>13139</t>
-  </si>
-  <si>
-    <t>Chính sách đối với Phật giáo Nam Tông Khmer và đồng bào Khmer vùng Tây Nam Bộ</t>
-  </si>
-  <si>
-    <t>13140</t>
-  </si>
-  <si>
-    <t>Tổng tiến công và nổi dậy Tết Mậu Thân 1968</t>
-  </si>
-  <si>
-    <t>13141</t>
-  </si>
-  <si>
-    <t>trí tuệ nhân tạo</t>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>Sách giáo khoa toán lớp 3</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>sách rất hay</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>Sách không hay</t>
   </si>
 </sst>
 </file>
@@ -646,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E10" sqref="E10"/>
@@ -655,7 +538,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" style="4" customWidth="1"/>
-    <col min="2" max="2" width="111" customWidth="1"/>
+    <col min="2" max="2" width="25.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="27.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="33.4285714285714" customWidth="1"/>
@@ -702,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -719,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -733,13 +616,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -747,16 +630,16 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -764,10 +647,10 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -779,430 +662,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="15.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="15.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
